--- a/metadata-utils-xssf/Test01.xlsx
+++ b/metadata-utils-xssf/Test01.xlsx
@@ -15,21 +15,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="5">
-  <si>
-    <t>"text 1"</t>
-  </si>
-  <si>
-    <t>"text 2"</t>
-  </si>
-  <si>
-    <t>"text 3"</t>
-  </si>
-  <si>
-    <t>"text 4"</t>
-  </si>
-  <si>
-    <t>text</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>“text 1”</t>
+  </si>
+  <si>
+    <t>text 1</t>
+  </si>
+  <si>
+    <t>“text 2”</t>
+  </si>
+  <si>
+    <t>text 2</t>
+  </si>
+  <si>
+    <t>“text 3”</t>
+  </si>
+  <si>
+    <t>text 3</t>
+  </si>
+  <si>
+    <t>“text 4”</t>
+  </si>
+  <si>
+    <t>text 4</t>
+  </si>
+  <si>
+    <t>“text 5”</t>
+  </si>
+  <si>
+    <t>text 5</t>
+  </si>
+  <si>
+    <t>“text 6”</t>
+  </si>
+  <si>
+    <t>text 6</t>
+  </si>
+  <si>
+    <t>"test 7”</t>
+  </si>
+  <si>
+    <t>text 7</t>
+  </si>
+  <si>
+    <t>“test 8”</t>
+  </si>
+  <si>
+    <t>text 8</t>
   </si>
 </sst>
 </file>
@@ -44,6 +86,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -123,10 +166,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <tabColor rgb="00FFFFFF"/>
+    <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -139,131 +182,129 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="B1" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="C1" s="0" t="n">
-        <v>300</v>
-      </c>
-      <c r="D1" s="0" t="n">
-        <v>400</v>
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>200</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>300</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <f aca="false">A1</f>
-        <v>100</v>
+      <c r="A5" s="0" t="s">
+        <v>9</v>
       </c>
       <c r="B5" s="0" t="n">
-        <f aca="false">B1</f>
-        <v>200</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <f aca="false">C1</f>
-        <v>300</v>
+        <v>400</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="D5" s="0" t="n">
-        <f aca="false">D1</f>
-        <v>400</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="str">
-        <f aca="false">A2</f>
-        <v>"text 1"</v>
-      </c>
-      <c r="B6" s="0" t="str">
-        <f aca="false">B2</f>
-        <v>"text 2"</v>
-      </c>
-      <c r="C6" s="0" t="str">
-        <f aca="false">C2</f>
-        <v>"text 3"</v>
-      </c>
-      <c r="D6" s="0" t="str">
-        <f aca="false">D2</f>
-        <v>"text 4"</v>
+      <c r="A6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="str">
-        <f aca="false">A3</f>
-        <v>text</v>
-      </c>
-      <c r="B7" s="0" t="str">
-        <f aca="false">B3</f>
-        <v>text</v>
-      </c>
-      <c r="C7" s="0" t="str">
-        <f aca="false">C3</f>
-        <v>text</v>
-      </c>
-      <c r="D7" s="0" t="str">
-        <f aca="false">D3</f>
-        <v>text</v>
+      <c r="A7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="str">
-        <f aca="false">A4</f>
-        <v>text</v>
-      </c>
-      <c r="B8" s="0" t="str">
-        <f aca="false">B4</f>
-        <v>text</v>
-      </c>
-      <c r="C8" s="0" t="str">
-        <f aca="false">C4</f>
-        <v>text</v>
-      </c>
-      <c r="D8" s="0" t="str">
-        <f aca="false">D4</f>
-        <v>text</v>
+      <c r="A8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/metadata-utils-xssf/Test01.xlsx
+++ b/metadata-utils-xssf/Test01.xlsx
@@ -5,17 +5,54 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="198" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="198" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>The Name of the thing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>The value of the thing</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>Name</t>
   </si>
@@ -72,6 +109,18 @@
   </si>
   <si>
     <t>text 8</t>
+  </si>
+  <si>
+    <t>“1”</t>
+  </si>
+  <si>
+    <t>“2”</t>
+  </si>
+  <si>
+    <t>“3”</t>
+  </si>
+  <si>
+    <t>“4”</t>
   </si>
 </sst>
 </file>
@@ -171,7 +220,7 @@
   </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -315,5 +364,74 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="00FFFFFF"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>